--- a/client/MNStrings.xlsx
+++ b/client/MNStrings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13665"/>
+    <workbookView windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>资源序号</t>
   </si>
@@ -58,6 +58,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>string_array</t>
     </r>
     <r>
@@ -129,18 +136,420 @@
   <si>
     <t>在征收界面中使用到的提示信息</t>
   </si>
+  <si>
+    <t>NET_ERRNO_-1</t>
+  </si>
+  <si>
+    <t>服务器已关闭</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_1</t>
+  </si>
+  <si>
+    <t>错误的请求</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_2</t>
+  </si>
+  <si>
+    <t>服务器不在线</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_3</t>
+  </si>
+  <si>
+    <t>错误的客户端版本呢</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_4</t>
+  </si>
+  <si>
+    <t>Token过期</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_5</t>
+  </si>
+  <si>
+    <t>无效的参数</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_6</t>
+  </si>
+  <si>
+    <t>数据保存出错</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_7</t>
+  </si>
+  <si>
+    <t>缓存出错</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_8</t>
+  </si>
+  <si>
+    <t>功能未开放</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_9</t>
+  </si>
+  <si>
+    <t>内部服务器错误</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_10</t>
+  </si>
+  <si>
+    <t>验证失败</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_11</t>
+  </si>
+  <si>
+    <t>验证失败，帐号不存在</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_12</t>
+  </si>
+  <si>
+    <t>验证失败，未知错误</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_13</t>
+  </si>
+  <si>
+    <t>客户端版本错误</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_14</t>
+  </si>
+  <si>
+    <t>外部帐号token过期</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_15</t>
+  </si>
+  <si>
+    <t>静态数据出错</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_20</t>
+  </si>
+  <si>
+    <t>玩家数据为空</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_21</t>
+  </si>
+  <si>
+    <t>建立玩家角色出错</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_22</t>
+  </si>
+  <si>
+    <t>角色已经存在</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_23</t>
+  </si>
+  <si>
+    <t>角色名重复</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_24</t>
+  </si>
+  <si>
+    <t>角色名字为空</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_25</t>
+  </si>
+  <si>
+    <t>角色数据不完整</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_30</t>
+  </si>
+  <si>
+    <t>角色升级成长值不足</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_31</t>
+  </si>
+  <si>
+    <t>角色已达满级</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_32</t>
+  </si>
+  <si>
+    <t>角色等级出错</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_36</t>
+  </si>
+  <si>
+    <t>无效的消息签名</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_42</t>
+  </si>
+  <si>
+    <t>游客帐号找不到</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_43</t>
+  </si>
+  <si>
+    <t>游客帐号类型不正确</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_100</t>
+  </si>
+  <si>
+    <t>征收类型无效</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_101</t>
+  </si>
+  <si>
+    <t>征收冷却中</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_120</t>
+  </si>
+  <si>
+    <t>玩家铜钱不足</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_150</t>
+  </si>
+  <si>
+    <t>玩家物品数据为空</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_151</t>
+  </si>
+  <si>
+    <t>不存在此物品</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_152</t>
+  </si>
+  <si>
+    <t>物品数量不足</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_153</t>
+  </si>
+  <si>
+    <t>物品合成失败, 请确保所需材料数量充足</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_154</t>
+  </si>
+  <si>
+    <t>物品使用失败</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_160</t>
+  </si>
+  <si>
+    <t>使用数量不合法</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_200</t>
+  </si>
+  <si>
+    <t>玩家未拥有知交</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_250</t>
+  </si>
+  <si>
+    <t>玩家未拥有卡牌</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_251</t>
+  </si>
+  <si>
+    <t>卡牌等级无效</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_252</t>
+  </si>
+  <si>
+    <t>卡牌阶级无效</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_253</t>
+  </si>
+  <si>
+    <t>卡牌等级达上限</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_254</t>
+  </si>
+  <si>
+    <t>星尘经验不足</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_255</t>
+  </si>
+  <si>
+    <t>星运属性错误</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_256</t>
+  </si>
+  <si>
+    <t>需要对应的升级道具</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_257</t>
+  </si>
+  <si>
+    <t>道具升星概率有误</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_258</t>
+  </si>
+  <si>
+    <t>星星等级无效</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_259</t>
+  </si>
+  <si>
+    <t>强化失败</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_260</t>
+  </si>
+  <si>
+    <t>玩家已经拥有此卡牌</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_261</t>
+  </si>
+  <si>
+    <t>卡牌不存在</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_262</t>
+  </si>
+  <si>
+    <t>卡牌碎片数量不足</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_263</t>
+  </si>
+  <si>
+    <t>添加卡牌失败</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_270</t>
+  </si>
+  <si>
+    <t>玩家剧情数据为空</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_271</t>
+  </si>
+  <si>
+    <t>剧情进度保存失败</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_10000</t>
+  </si>
+  <si>
+    <t>服务器 ID 无效</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_10001</t>
+  </si>
+  <si>
+    <t>从无效的 IP 地址访问</t>
+  </si>
+  <si>
+    <t>NET_ERRNO_10002</t>
+  </si>
+  <si>
+    <t>签名无效</t>
+  </si>
+  <si>
+    <t>MAX_LV</t>
+  </si>
+  <si>
+    <t>已满级</t>
+  </si>
+  <si>
+    <t>玩家等级满级</t>
+  </si>
+  <si>
+    <t>LOSS_GROWTH</t>
+  </si>
+  <si>
+    <t>成长值不足</t>
+  </si>
+  <si>
+    <t>CONST_GROWTH</t>
+  </si>
+  <si>
+    <t>成长值</t>
+  </si>
+  <si>
+    <t>通用名称，成长值</t>
+  </si>
+  <si>
+    <t>UI_BOUDOIR_TITLE</t>
+  </si>
+  <si>
+    <t>我的房间</t>
+  </si>
+  <si>
+    <t>UI_BOUDOIR_BTN_PROMOTE</t>
+  </si>
+  <si>
+    <t>晋升</t>
+  </si>
+  <si>
+    <t>UI_BOUDOIR_ENRNING</t>
+  </si>
+  <si>
+    <t>每日分利</t>
+  </si>
+  <si>
+    <t>UI_BOUDOIR_MONEY</t>
+  </si>
+  <si>
+    <t>月钱次数上限</t>
+  </si>
+  <si>
+    <t>UI_BOUDOIR_HELP</t>
+  </si>
+  <si>
+    <t>帮工次数上限</t>
+  </si>
+  <si>
+    <t>UI_BOUDOIR_REFUTE</t>
+  </si>
+  <si>
+    <t>反驳次数上限</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +570,126 @@
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -172,28 +701,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,61 +708,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,44 +722,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -342,181 +757,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,23 +963,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,20 +1017,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,168 +1057,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,58 +1219,64 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1129,20 +1550,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="34.9230769230769" customWidth="1"/>
     <col min="2" max="2" width="67.875" customWidth="1"/>
     <col min="3" max="3" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" ht="17.55" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.55" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1197,35 +1618,545 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8"/>
-      <c r="B8"/>
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
       <c r="C9"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10"/>
-      <c r="B10"/>
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
       <c r="C10"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:1">
-      <c r="A12"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
-      <c r="A13"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:1">
-      <c r="A14"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:1">
-      <c r="A15"/>
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/client/MNStrings.xlsx
+++ b/client/MNStrings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020"/>
+    <workbookView windowWidth="27765" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>资源序号</t>
   </si>
@@ -538,16 +538,40 @@
   <si>
     <t>反驳次数上限</t>
   </si>
+  <si>
+    <t>LEVEL_BATTLE_WIN</t>
+  </si>
+  <si>
+    <t>&lt;color=orange&gt;战斗胜利&lt;/color&gt;      &lt;color=green&gt;铜钱+{cash_reward}    成长点+{gp_reward}&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>LEVEL_BATTLE_LOSE</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;战斗失败&lt;/color&gt;    &lt;color=white&gt;请小姐再接再厉&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>LEVEL_BATTLE_REWARD</t>
+  </si>
+  <si>
+    <t>&lt;color=darkblue&gt;获得物品&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>LEVEL_BATTLE_REP_NOT_ENOUGH</t>
+  </si>
+  <si>
+    <t>&lt;color=white&gt;声望不足，无法进行战斗&lt;/color&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -579,14 +603,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,13 +647,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -615,16 +655,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,24 +694,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,23 +711,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,22 +726,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,55 +781,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,121 +949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,33 +984,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1002,17 +999,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,153 +1048,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,54 +1253,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1550,20 +1574,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="34.9230769230769" customWidth="1"/>
-    <col min="2" max="2" width="67.875" customWidth="1"/>
+    <col min="1" max="1" width="34.925" customWidth="1"/>
+    <col min="2" max="2" width="107" customWidth="1"/>
     <col min="3" max="3" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:3">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2156,6 +2180,38 @@
       </c>
       <c r="B71" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/client/MNStrings.xlsx
+++ b/client/MNStrings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13665"/>
+    <workbookView windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
   <si>
     <t>资源序号</t>
   </si>
@@ -479,6 +479,30 @@
     <t>签名无效</t>
   </si>
   <si>
+    <t>LEVEL_BATTLE_WIN</t>
+  </si>
+  <si>
+    <t>&lt;color=orange&gt;战斗胜利&lt;/color&gt;      &lt;color=green&gt;铜钱+{cash_reward}    成长点+{gp_reward}&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>LEVEL_BATTLE_LOSE</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;战斗失败&lt;/color&gt;    &lt;color=white&gt;请小姐再接再厉&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>LEVEL_BATTLE_REWARD</t>
+  </si>
+  <si>
+    <t>&lt;color=darkblue&gt;获得物品&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>LEVEL_BATTLE_REP_NOT_ENOUGH</t>
+  </si>
+  <si>
+    <t>&lt;color=white&gt;声望不足，无法进行战斗&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>MAX_LV</t>
   </si>
   <si>
@@ -494,6 +518,42 @@
     <t>成长值不足</t>
   </si>
   <si>
+    <t>CONST_PLAYER_ID</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>CONST_PROPERTY</t>
+  </si>
+  <si>
+    <t>总属性</t>
+  </si>
+  <si>
+    <t>CONST_TALE</t>
+  </si>
+  <si>
+    <t>才华</t>
+  </si>
+  <si>
+    <t>CONST_INTEL</t>
+  </si>
+  <si>
+    <t>聪慧</t>
+  </si>
+  <si>
+    <t>CONST_MAJE</t>
+  </si>
+  <si>
+    <t>威严</t>
+  </si>
+  <si>
+    <t>CONST_CHARM</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
     <t>CONST_GROWTH</t>
   </si>
   <si>
@@ -539,28 +599,91 @@
     <t>反驳次数上限</t>
   </si>
   <si>
-    <t>LEVEL_BATTLE_WIN</t>
-  </si>
-  <si>
-    <t>&lt;color=orange&gt;战斗胜利&lt;/color&gt;      &lt;color=green&gt;铜钱+{cash_reward}    成长点+{gp_reward}&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>LEVEL_BATTLE_LOSE</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;战斗失败&lt;/color&gt;    &lt;color=white&gt;请小姐再接再厉&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>LEVEL_BATTLE_REWARD</t>
-  </si>
-  <si>
-    <t>&lt;color=darkblue&gt;获得物品&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>LEVEL_BATTLE_REP_NOT_ENOUGH</t>
-  </si>
-  <si>
-    <t>&lt;color=white&gt;声望不足，无法进行战斗&lt;/color&gt;</t>
+    <t>UI_PLR_TITLE</t>
+  </si>
+  <si>
+    <t>玩家信息</t>
+  </si>
+  <si>
+    <t>玩家信息页面相关静态文字</t>
+  </si>
+  <si>
+    <t>UI_PLR_BTN_SETTING</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>UL_PLR_STATE</t>
+  </si>
+  <si>
+    <t>身份</t>
+  </si>
+  <si>
+    <t>UI_PLR_EFFECT</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>UI_PLR_BGM</t>
+  </si>
+  <si>
+    <t>背景音乐</t>
+  </si>
+  <si>
+    <t>UI_PLR_BGS</t>
+  </si>
+  <si>
+    <t>页面音效</t>
+  </si>
+  <si>
+    <t>UI_PLR_EXCHANGE</t>
+  </si>
+  <si>
+    <t>兑换码</t>
+  </si>
+  <si>
+    <t>UI_PLR_SUPPORT</t>
+  </si>
+  <si>
+    <t>联系客服</t>
+  </si>
+  <si>
+    <t>UI_PLR_FACEBOOK</t>
+  </si>
+  <si>
+    <t>脸书</t>
+  </si>
+  <si>
+    <t>UI_PLR_RELOGIN</t>
+  </si>
+  <si>
+    <t>返回登录页面</t>
+  </si>
+  <si>
+    <t>UI_PLR_USER</t>
+  </si>
+  <si>
+    <t>用户中心</t>
+  </si>
+  <si>
+    <t>UI_PLR_GOOGLE</t>
+  </si>
+  <si>
+    <t>谷歌</t>
+  </si>
+  <si>
+    <t>UI_PLR_ON</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>UI_PLR_OFF</t>
+  </si>
+  <si>
+    <t>关</t>
   </si>
 </sst>
 </file>
@@ -568,10 +691,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -603,7 +726,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,14 +818,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,79 +847,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,28 +856,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,19 +904,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,157 +1048,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,26 +1107,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,11 +1133,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,26 +1185,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,148 +1209,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,54 +1376,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1574,20 +1697,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="34.925" customWidth="1"/>
+    <col min="1" max="1" width="34.9230769230769" customWidth="1"/>
     <col min="2" max="2" width="107" customWidth="1"/>
     <col min="3" max="3" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" ht="17.55" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.55" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,117 +2224,280 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>129</v>
       </c>
       <c r="B63" t="s">
         <v>130</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>132</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>133</v>
       </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>134</v>
-      </c>
-      <c r="B65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>137</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="C67" t="s">
         <v>139</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>141</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:2">
+      <c r="A69" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>143</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" customFormat="1" spans="1:2">
+      <c r="A70" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>145</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" customFormat="1" spans="1:2">
+      <c r="A71" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>147</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" customFormat="1" spans="1:2">
+      <c r="A72" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>149</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" customFormat="1" spans="1:2">
+      <c r="A73" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>151</v>
       </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="74" customFormat="1" spans="1:2">
+      <c r="A74" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>153</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>155</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:2">
+      <c r="A76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:2">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:2">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:2">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:2">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:2">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:2">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:2">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:2">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:2">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:2">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:2">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:2">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:2">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:2">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:2">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:2">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:2">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:2">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/client/MNStrings.xlsx
+++ b/client/MNStrings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
   <si>
     <t>资源序号</t>
   </si>
@@ -554,6 +554,24 @@
     <t>魅力</t>
   </si>
   <si>
+    <t>CONST_SPECIALITY</t>
+  </si>
+  <si>
+    <t>特长</t>
+  </si>
+  <si>
+    <t>CONST_LV</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>CONST_GRADE</t>
+  </si>
+  <si>
+    <t>阶级</t>
+  </si>
+  <si>
     <t>CONST_GROWTH</t>
   </si>
   <si>
@@ -563,6 +581,12 @@
     <t>通用名称，成长值</t>
   </si>
   <si>
+    <t>CONST_ENERGY</t>
+  </si>
+  <si>
+    <t>星运</t>
+  </si>
+  <si>
     <t>UI_BOUDOIR_TITLE</t>
   </si>
   <si>
@@ -684,6 +708,120 @@
   </si>
   <si>
     <t>关</t>
+  </si>
+  <si>
+    <t>UI_CARD_TITLE</t>
+  </si>
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>UI_CARD_BTN_PIECE</t>
+  </si>
+  <si>
+    <t>卡牌碎片</t>
+  </si>
+  <si>
+    <t>卡牌相关页面</t>
+  </si>
+  <si>
+    <t>UI_CARD_TITLE_1</t>
+  </si>
+  <si>
+    <t>我的卡牌</t>
+  </si>
+  <si>
+    <t>UI_CARD_SORT_DF</t>
+  </si>
+  <si>
+    <t>默认排序</t>
+  </si>
+  <si>
+    <t>UI_CARD_SORT_LV</t>
+  </si>
+  <si>
+    <t>等级排序</t>
+  </si>
+  <si>
+    <t>UI_CARD_SORT_QA</t>
+  </si>
+  <si>
+    <t>稀有排序</t>
+  </si>
+  <si>
+    <t>UI_CARD_SORT_EY</t>
+  </si>
+  <si>
+    <t>星运排序</t>
+  </si>
+  <si>
+    <t>UI_CARD_SORT_PT</t>
+  </si>
+  <si>
+    <t>属性排序</t>
+  </si>
+  <si>
+    <t>UI_CARD_TITLE_2</t>
+  </si>
+  <si>
+    <t>卡牌详情</t>
+  </si>
+  <si>
+    <t>UI_CARD_TITLE_PARY</t>
+  </si>
+  <si>
+    <t>许愿</t>
+  </si>
+  <si>
+    <t>强化</t>
+  </si>
+  <si>
+    <t>UI_CARD_BTN_LVUP</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>UI_CARD_BTN_SUBLIME</t>
+  </si>
+  <si>
+    <t>突破</t>
+  </si>
+  <si>
+    <t>UI_CARD_ADD_EY</t>
+  </si>
+  <si>
+    <t>星运加成</t>
+  </si>
+  <si>
+    <t>UI_CARD_ADD_PO</t>
+  </si>
+  <si>
+    <t>丹药加成</t>
+  </si>
+  <si>
+    <t>UI_CARD_ADD_MO</t>
+  </si>
+  <si>
+    <t>拾光加成</t>
+  </si>
+  <si>
+    <t>UI_CARD_ADD_YK</t>
+  </si>
+  <si>
+    <t>羁绊加成</t>
+  </si>
+  <si>
+    <t>UI_CARD_TITLE_3</t>
+  </si>
+  <si>
+    <t>属性详情</t>
+  </si>
+  <si>
+    <t>UI_CARD_TITLE_4</t>
+  </si>
+  <si>
+    <t>综合属性</t>
   </si>
 </sst>
 </file>
@@ -1697,10 +1835,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -2326,38 +2464,38 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" customFormat="1" spans="1:2">
       <c r="A75" t="s">
         <v>154</v>
       </c>
       <c r="B75" t="s">
         <v>155</v>
       </c>
-      <c r="C75" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="76" customFormat="1" spans="1:2">
       <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s">
         <v>157</v>
-      </c>
-      <c r="B76" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:2">
       <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
         <v>159</v>
       </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>161</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2385,46 +2523,46 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" customFormat="1" spans="1:2">
       <c r="A82" t="s">
         <v>169</v>
       </c>
       <c r="B82" t="s">
         <v>170</v>
       </c>
-      <c r="C82" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="83" customFormat="1" spans="1:2">
       <c r="A83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s">
         <v>172</v>
-      </c>
-      <c r="B83" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:2">
       <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
         <v>174</v>
-      </c>
-      <c r="B84" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:2">
       <c r="A85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
         <v>176</v>
       </c>
-      <c r="B85" t="s">
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>178</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2498,6 +2636,193 @@
       </c>
       <c r="B95" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:2">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:2">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:2">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:2">
+      <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/client/MNStrings.xlsx
+++ b/client/MNStrings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262">
   <si>
     <t>资源序号</t>
   </si>
@@ -823,16 +823,70 @@
   <si>
     <t>综合属性</t>
   </si>
+  <si>
+    <t>TEXT_BAG</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>TEXT_ITEM</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>TEXT_COMPOSE</t>
+  </si>
+  <si>
+    <t>合成</t>
+  </si>
+  <si>
+    <t>TEXT_USE</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>HINTS_USE_ITEM</t>
+  </si>
+  <si>
+    <t>请选择使用数量</t>
+  </si>
+  <si>
+    <t>HINTS_EFFECT</t>
+  </si>
+  <si>
+    <t>效果：</t>
+  </si>
+  <si>
+    <t>HINTS_GAIN_WAY</t>
+  </si>
+  <si>
+    <t>获取途径：</t>
+  </si>
+  <si>
+    <t>HINTS_COMPOSE_NUM</t>
+  </si>
+  <si>
+    <t>可合成数量：</t>
+  </si>
+  <si>
+    <t>HINTS_COMPOSE_MATERIAL</t>
+  </si>
+  <si>
+    <t>合成材料：</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -864,14 +918,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,15 +991,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -908,32 +1007,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,8 +1030,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,44 +1048,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,43 +1096,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,133 +1270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,24 +1301,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,16 +1335,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,13 +1373,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1337,8 +1391,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,148 +1401,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1514,54 +1568,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1835,20 +1889,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="34.9230769230769" customWidth="1"/>
+    <col min="1" max="1" width="34.925" customWidth="1"/>
     <col min="2" max="2" width="107" customWidth="1"/>
     <col min="3" max="3" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:3">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2823,6 +2877,78 @@
       </c>
       <c r="B118" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/client/MNStrings.xlsx
+++ b/client/MNStrings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
   <si>
     <t>资源序号</t>
   </si>
@@ -877,6 +877,24 @@
   <si>
     <t>合成材料：</t>
   </si>
+  <si>
+    <t>TEXT_MAIN_LINE</t>
+  </si>
+  <si>
+    <t>主线</t>
+  </si>
+  <si>
+    <t>TEXT_BRANCH_LINE</t>
+  </si>
+  <si>
+    <t>支线</t>
+  </si>
+  <si>
+    <t>TEXT_ENTER_STORY</t>
+  </si>
+  <si>
+    <t>进入剧情</t>
+  </si>
 </sst>
 </file>
 
@@ -884,9 +902,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -924,16 +942,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,7 +966,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,6 +974,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,7 +995,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,7 +1003,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,16 +1033,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,16 +1064,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,181 +1114,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,13 +1317,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1334,26 +1356,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,26 +1380,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,145 +1422,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1889,10 +1907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2951,6 +2969,30 @@
         <v>261</v>
       </c>
     </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
